--- a/codigo_final_organizado/analisis/resultados_diff_d/P1_Sensibilidad_Modelos.xlsx
+++ b/codigo_final_organizado/analisis/resultados_diff_d/P1_Sensibilidad_Modelos.xlsx
@@ -487,22 +487,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>519971837944.1861</v>
+        <v>2412667512.985902</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5267827518060167</v>
+        <v>281020871479559.7</v>
       </c>
       <c r="G2" t="n">
-        <v>972.2812840638154</v>
+        <v>599.9793834530285</v>
       </c>
       <c r="H2" t="n">
-        <v>519971837944.186</v>
+        <v>2412667512.985902</v>
       </c>
     </row>
     <row r="3">
@@ -517,22 +517,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>154144656933.8414</v>
+        <v>734245007.6737363</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1716483982068322</v>
+        <v>109666514042594.4</v>
       </c>
       <c r="G3" t="n">
-        <v>974.6009392821145</v>
+        <v>599.9839238902063</v>
       </c>
       <c r="H3" t="n">
-        <v>154144656933.8414</v>
+        <v>734245007.6737363</v>
       </c>
     </row>
     <row r="4">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>540434319453.2774</v>
+        <v>2476191769.954624</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5410945013763206</v>
+        <v>284066152935168.8</v>
       </c>
       <c r="G4" t="n">
-        <v>972.181679301875</v>
+        <v>599.9790672944112</v>
       </c>
       <c r="H4" t="n">
-        <v>540434319453.2773</v>
+        <v>2476191769.954624</v>
       </c>
     </row>
     <row r="5">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>530899878392.4048</v>
+        <v>2267867024.890732</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5067871031361811</v>
+        <v>276589522591358.8</v>
       </c>
       <c r="G5" t="n">
-        <v>971.3022210951215</v>
+        <v>599.9803111714041</v>
       </c>
       <c r="H5" t="n">
-        <v>530899878392.4047</v>
+        <v>2267867024.890732</v>
       </c>
     </row>
     <row r="6">
@@ -607,22 +607,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>130698117925.5015</v>
+        <v>684729526.2772753</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1470005136119646</v>
+        <v>99363076310209.3</v>
       </c>
       <c r="G6" t="n">
-        <v>973.9020931828835</v>
+        <v>599.98345356569</v>
       </c>
       <c r="H6" t="n">
-        <v>130698117925.5015</v>
+        <v>684729526.2772753</v>
       </c>
     </row>
     <row r="7">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15782979379.08669</v>
+        <v>88451370.87369135</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>187184969852567.1</v>
+        <v>13721556274646.81</v>
       </c>
       <c r="G7" t="n">
-        <v>974.4286912500138</v>
+        <v>599.984522831602</v>
       </c>
       <c r="H7" t="n">
-        <v>15782979379.08668</v>
+        <v>88451370.87369135</v>
       </c>
     </row>
     <row r="8">
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15495242694.66876</v>
+        <v>448083662.4119719</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>186665575801259.8</v>
+        <v>68321158008464.47</v>
       </c>
       <c r="G8" t="n">
-        <v>974.9087989256016</v>
+        <v>599.9842526323962</v>
       </c>
       <c r="H8" t="n">
-        <v>15495242694.66876</v>
+        <v>448083662.4119719</v>
       </c>
     </row>
     <row r="9">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>307859026686.6113</v>
+        <v>1410829212.825469</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3312332044647750</v>
+        <v>192719448351730.3</v>
       </c>
       <c r="G9" t="n">
-        <v>973.5519505376728</v>
+        <v>599.982422212462</v>
       </c>
       <c r="H9" t="n">
-        <v>307859026686.6112</v>
+        <v>1410829212.825469</v>
       </c>
     </row>
     <row r="10">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>46279.72108099703</v>
+        <v>11.26879859863915</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9636363636363635</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>7.320974809529922e-06</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>668744493.1447847</v>
+        <v>7166599.296977292</v>
       </c>
       <c r="G10" t="n">
-        <v>977.6140178396389</v>
+        <v>599.9960259751688</v>
       </c>
       <c r="H10" t="n">
-        <v>44596.82213259714</v>
+        <v>11.26879859863915</v>
       </c>
     </row>
     <row r="11">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22207718778587.42</v>
+        <v>80448460319.36288</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.703751848549811e+17</v>
+        <v>6442078993411337</v>
       </c>
       <c r="G11" t="n">
-        <v>968.7239582678158</v>
+        <v>599.9700017775917</v>
       </c>
       <c r="H11" t="n">
-        <v>22207718778587.41</v>
+        <v>80448460319.36288</v>
       </c>
     </row>
     <row r="12">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7023270799717.645</v>
+        <v>26997107502.8449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.977315919702436e+16</v>
+        <v>2651756066357992</v>
       </c>
       <c r="G12" t="n">
-        <v>970.7973518140215</v>
+        <v>599.9755477184607</v>
       </c>
       <c r="H12" t="n">
-        <v>7023270799717.644</v>
+        <v>26997107502.8449</v>
       </c>
     </row>
     <row r="13">
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22944704405495.83</v>
+        <v>82260972169.52925</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.740344982297392e+17</v>
+        <v>6550165311036239</v>
       </c>
       <c r="G13" t="n">
-        <v>968.5827178679824</v>
+        <v>599.9698318209671</v>
       </c>
       <c r="H13" t="n">
-        <v>22944704405495.83</v>
+        <v>82260972169.52925</v>
       </c>
     </row>
     <row r="14">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21841970298065.64</v>
+        <v>76853197667.61612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.690381212833547e+17</v>
+        <v>6443047166599908</v>
       </c>
       <c r="G14" t="n">
-        <v>969.1525854708946</v>
+        <v>599.9713481630326</v>
       </c>
       <c r="H14" t="n">
-        <v>21841970298065.63</v>
+        <v>76853197667.61612</v>
       </c>
     </row>
     <row r="15">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5941161852567.418</v>
+        <v>24167913345.41976</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>5.383338129087254e+16</v>
+        <v>2522363449560980</v>
       </c>
       <c r="G15" t="n">
-        <v>971.348188846029</v>
+        <v>599.9769876669343</v>
       </c>
       <c r="H15" t="n">
-        <v>5941161852567.417</v>
+        <v>24167913345.41976</v>
       </c>
     </row>
     <row r="16">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>741983552217.561</v>
+        <v>3220626050.680063</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6942158170330352</v>
+        <v>337088300014996.2</v>
       </c>
       <c r="G16" t="n">
-        <v>971.5918279248981</v>
+        <v>599.977054049558</v>
       </c>
       <c r="H16" t="n">
-        <v>741983552217.5609</v>
+        <v>3220626050.680063</v>
       </c>
     </row>
     <row r="17">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>734192879987.6017</v>
+        <v>16236655844.35864</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6871323549183523</v>
+        <v>1692527030221570</v>
       </c>
       <c r="G17" t="n">
-        <v>971.1649369375089</v>
+        <v>599.9769593893565</v>
       </c>
       <c r="H17" t="n">
-        <v>734192879987.6016</v>
+        <v>16236655844.35864</v>
       </c>
     </row>
     <row r="18">
@@ -967,22 +967,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13672737423758.69</v>
+        <v>50817480527.65192</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>6.646897422032013e-64</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.144255185223396e+17</v>
+        <v>4565004790096096</v>
       </c>
       <c r="G18" t="n">
-        <v>970.6525114621248</v>
+        <v>599.9732629300808</v>
       </c>
       <c r="H18" t="n">
-        <v>13672737423758.69</v>
+        <v>50817480527.65192</v>
       </c>
     </row>
     <row r="19">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2136080.825210258</v>
+        <v>594.0351617115377</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9878787878787878</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>9.307459988955517e-08</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>21436190939.48236</v>
+        <v>156848507.1189587</v>
       </c>
       <c r="G19" t="n">
-        <v>967.0730092971997</v>
+        <v>599.9908988153697</v>
       </c>
       <c r="H19" t="n">
-        <v>2110188.936419831</v>
+        <v>594.0351617115377</v>
       </c>
     </row>
   </sheetData>
